--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.1528410476038</v>
+        <v>51.56869633333334</v>
       </c>
       <c r="H2">
-        <v>20.1528410476038</v>
+        <v>154.706089</v>
       </c>
       <c r="I2">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="J2">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.04573445456268</v>
+        <v>32.658611</v>
       </c>
       <c r="N2">
-        <v>4.04573445456268</v>
+        <v>97.97583299999999</v>
       </c>
       <c r="O2">
-        <v>0.5216176141894612</v>
+        <v>0.8917945513604759</v>
       </c>
       <c r="P2">
-        <v>0.5216176141894612</v>
+        <v>0.8917945513604759</v>
       </c>
       <c r="Q2">
-        <v>81.53304338361576</v>
+        <v>1684.16199332746</v>
       </c>
       <c r="R2">
-        <v>81.53304338361576</v>
+        <v>15157.45793994714</v>
       </c>
       <c r="S2">
-        <v>0.04448751704524301</v>
+        <v>0.1655027912310878</v>
       </c>
       <c r="T2">
-        <v>0.04448751704524301</v>
+        <v>0.1655027912310878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.1528410476038</v>
+        <v>51.56869633333334</v>
       </c>
       <c r="H3">
-        <v>20.1528410476038</v>
+        <v>154.706089</v>
       </c>
       <c r="I3">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="J3">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.185227328705029</v>
+        <v>0.3385316666666667</v>
       </c>
       <c r="N3">
-        <v>0.185227328705029</v>
+        <v>1.015595</v>
       </c>
       <c r="O3">
-        <v>0.02388140852221309</v>
+        <v>0.009244137657793045</v>
       </c>
       <c r="P3">
-        <v>0.02388140852221309</v>
+        <v>0.009244137657793047</v>
       </c>
       <c r="Q3">
-        <v>3.73285691306471</v>
+        <v>17.45763671755056</v>
       </c>
       <c r="R3">
-        <v>3.73285691306471</v>
+        <v>157.118730457955</v>
       </c>
       <c r="S3">
-        <v>0.002036788137124669</v>
+        <v>0.001715563951983308</v>
       </c>
       <c r="T3">
-        <v>0.002036788137124669</v>
+        <v>0.001715563951983308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.1528410476038</v>
+        <v>51.56869633333334</v>
       </c>
       <c r="H4">
-        <v>20.1528410476038</v>
+        <v>154.706089</v>
       </c>
       <c r="I4">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="J4">
-        <v>0.08528760500998789</v>
+        <v>0.1855839901450455</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.52516903844414</v>
+        <v>3.624084666666667</v>
       </c>
       <c r="N4">
-        <v>3.52516903844414</v>
+        <v>10.872254</v>
       </c>
       <c r="O4">
-        <v>0.4545009772883257</v>
+        <v>0.09896131098173097</v>
       </c>
       <c r="P4">
-        <v>0.4545009772883257</v>
+        <v>0.09896131098173098</v>
       </c>
       <c r="Q4">
-        <v>71.04217129769908</v>
+        <v>186.8893216616229</v>
       </c>
       <c r="R4">
-        <v>71.04217129769908</v>
+        <v>1682.003894954606</v>
       </c>
       <c r="S4">
-        <v>0.0387632998276202</v>
+        <v>0.01836563496197434</v>
       </c>
       <c r="T4">
-        <v>0.0387632998276202</v>
+        <v>0.01836563496197434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.221354192527</v>
+        <v>165.03522</v>
       </c>
       <c r="H5">
-        <v>162.221354192527</v>
+        <v>495.1056600000001</v>
       </c>
       <c r="I5">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="J5">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.04573445456268</v>
+        <v>32.658611</v>
       </c>
       <c r="N5">
-        <v>4.04573445456268</v>
+        <v>97.97583299999999</v>
       </c>
       <c r="O5">
-        <v>0.5216176141894612</v>
+        <v>0.8917945513604759</v>
       </c>
       <c r="P5">
-        <v>0.5216176141894612</v>
+        <v>0.8917945513604759</v>
       </c>
       <c r="Q5">
-        <v>656.3045219225226</v>
+        <v>5389.82105127942</v>
       </c>
       <c r="R5">
-        <v>656.3045219225226</v>
+        <v>48508.38946151478</v>
       </c>
       <c r="S5">
-        <v>0.3581046088090165</v>
+        <v>0.5296583296363334</v>
       </c>
       <c r="T5">
-        <v>0.3581046088090165</v>
+        <v>0.5296583296363334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>162.221354192527</v>
+        <v>165.03522</v>
       </c>
       <c r="H6">
-        <v>162.221354192527</v>
+        <v>495.1056600000001</v>
       </c>
       <c r="I6">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="J6">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.185227328705029</v>
+        <v>0.3385316666666667</v>
       </c>
       <c r="N6">
-        <v>0.185227328705029</v>
+        <v>1.015595</v>
       </c>
       <c r="O6">
-        <v>0.02388140852221309</v>
+        <v>0.009244137657793045</v>
       </c>
       <c r="P6">
-        <v>0.02388140852221309</v>
+        <v>0.009244137657793047</v>
       </c>
       <c r="Q6">
-        <v>30.04782809599413</v>
+        <v>55.86964808530001</v>
       </c>
       <c r="R6">
-        <v>30.04782809599413</v>
+        <v>502.8268327677001</v>
       </c>
       <c r="S6">
-        <v>0.01639523325903096</v>
+        <v>0.005490316691535677</v>
       </c>
       <c r="T6">
-        <v>0.01639523325903096</v>
+        <v>0.005490316691535679</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>162.221354192527</v>
+        <v>165.03522</v>
       </c>
       <c r="H7">
-        <v>162.221354192527</v>
+        <v>495.1056600000001</v>
       </c>
       <c r="I7">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="J7">
-        <v>0.6865270632501039</v>
+        <v>0.5939241598059933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.52516903844414</v>
+        <v>3.624084666666667</v>
       </c>
       <c r="N7">
-        <v>3.52516903844414</v>
+        <v>10.872254</v>
       </c>
       <c r="O7">
-        <v>0.4545009772883257</v>
+        <v>0.09896131098173097</v>
       </c>
       <c r="P7">
-        <v>0.4545009772883257</v>
+        <v>0.09896131098173098</v>
       </c>
       <c r="Q7">
-        <v>571.8576951739766</v>
+        <v>598.10161026196</v>
       </c>
       <c r="R7">
-        <v>571.8576951739766</v>
+        <v>5382.91449235764</v>
       </c>
       <c r="S7">
-        <v>0.3120272211820564</v>
+        <v>0.05877551347812419</v>
       </c>
       <c r="T7">
-        <v>0.3120272211820564</v>
+        <v>0.05877551347812419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.9185350486812</v>
+        <v>61.26863233333334</v>
       </c>
       <c r="H8">
-        <v>53.9185350486812</v>
+        <v>183.805897</v>
       </c>
       <c r="I8">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="J8">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.04573445456268</v>
+        <v>32.658611</v>
       </c>
       <c r="N8">
-        <v>4.04573445456268</v>
+        <v>97.97583299999999</v>
       </c>
       <c r="O8">
-        <v>0.5216176141894612</v>
+        <v>0.8917945513604759</v>
       </c>
       <c r="P8">
-        <v>0.5216176141894612</v>
+        <v>0.8917945513604759</v>
       </c>
       <c r="Q8">
-        <v>218.140074985995</v>
+        <v>2000.948429876356</v>
       </c>
       <c r="R8">
-        <v>218.140074985995</v>
+        <v>18008.5358688872</v>
       </c>
       <c r="S8">
-        <v>0.1190254883352016</v>
+        <v>0.1966334304930547</v>
       </c>
       <c r="T8">
-        <v>0.1190254883352016</v>
+        <v>0.1966334304930547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.9185350486812</v>
+        <v>61.26863233333334</v>
       </c>
       <c r="H9">
-        <v>53.9185350486812</v>
+        <v>183.805897</v>
       </c>
       <c r="I9">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="J9">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.185227328705029</v>
+        <v>0.3385316666666667</v>
       </c>
       <c r="N9">
-        <v>0.185227328705029</v>
+        <v>1.015595</v>
       </c>
       <c r="O9">
-        <v>0.02388140852221309</v>
+        <v>0.009244137657793045</v>
       </c>
       <c r="P9">
-        <v>0.02388140852221309</v>
+        <v>0.009244137657793047</v>
       </c>
       <c r="Q9">
-        <v>9.987186214755699</v>
+        <v>20.74137221819056</v>
       </c>
       <c r="R9">
-        <v>9.987186214755699</v>
+        <v>186.672349963715</v>
       </c>
       <c r="S9">
-        <v>0.005449387126057463</v>
+        <v>0.002038257014274059</v>
       </c>
       <c r="T9">
-        <v>0.005449387126057463</v>
+        <v>0.00203825701427406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>53.9185350486812</v>
+        <v>61.26863233333334</v>
       </c>
       <c r="H10">
-        <v>53.9185350486812</v>
+        <v>183.805897</v>
       </c>
       <c r="I10">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="J10">
-        <v>0.2281853317399081</v>
+        <v>0.2204918500489612</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.52516903844414</v>
+        <v>3.624084666666667</v>
       </c>
       <c r="N10">
-        <v>3.52516903844414</v>
+        <v>10.872254</v>
       </c>
       <c r="O10">
-        <v>0.4545009772883257</v>
+        <v>0.09896131098173097</v>
       </c>
       <c r="P10">
-        <v>0.4545009772883257</v>
+        <v>0.09896131098173098</v>
       </c>
       <c r="Q10">
-        <v>190.0719503518762</v>
+        <v>222.0427109868709</v>
       </c>
       <c r="R10">
-        <v>190.0719503518762</v>
+        <v>1998.384398881838</v>
       </c>
       <c r="S10">
-        <v>0.103710456278649</v>
+        <v>0.02182016254163244</v>
       </c>
       <c r="T10">
-        <v>0.103710456278649</v>
+        <v>0.02182016254163244</v>
       </c>
     </row>
   </sheetData>
